--- a/docs/packages.xlsx
+++ b/docs/packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\tsrx\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9A6248-C8B5-4112-AFB6-44A148C754A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0DDB70-C789-4EE4-8020-7E0314FDCB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="1185" windowWidth="17205" windowHeight="12855" xr2:uid="{E269136E-050C-457A-B942-E0DE333F5947}"/>
+    <workbookView xWindow="20355" yWindow="1530" windowWidth="17205" windowHeight="12855" xr2:uid="{E269136E-050C-457A-B942-E0DE333F5947}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
   <si>
     <t>dep</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>babel-plugin-named-asset-import</t>
+  </si>
+  <si>
+    <t>external-remotes-plugin</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819F4EC6-4929-4C45-BAFF-BD961D8E9B9A}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1579,7 @@
         <v>98</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" ref="E54:E58" si="1">"yarn add " &amp;B54&amp; " "&amp;C54</f>
+        <f t="shared" ref="E54:E59" si="1">"yarn add " &amp;B54&amp; " "&amp;C54</f>
         <v>yarn add --dev eslint</v>
       </c>
     </row>
@@ -1641,6 +1644,18 @@
       </c>
       <c r="F58" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>yarn add  external-remotes-plugin</v>
       </c>
     </row>
   </sheetData>
